--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlAreaData.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlAreaData.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F61AE-6858-4ACF-AE54-BC2468ADC57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -223,12 +224,16 @@
     <t>NVARCHAR2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>2023-09-04 Wei from 琦欣 先截斷至十個中文字</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,7 +329,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -426,10 +437,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -441,9 +452,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -456,9 +464,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,11 +494,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -505,13 +507,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,9 +532,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -567,9 +572,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,7 +609,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,7 +644,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -812,29 +817,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28" style="18" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="28" style="16" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
@@ -845,79 +850,79 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="31" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="31" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="28" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -936,214 +941,231 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="19">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="22">
         <v>6</v>
       </c>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="F9" s="24"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="19">
+      <c r="F10" s="24"/>
+      <c r="G10" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="22">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="19">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="22">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="19">
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="22">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="22">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19">
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="22">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19">
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="22">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="19"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="19"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="19"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="19"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="19"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="19"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="19"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="19"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="19"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1162,7 +1184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1170,7 +1192,7 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="51.21875" style="1" customWidth="1"/>
@@ -1178,7 +1200,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1189,7 +1211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1200,14 +1222,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlAreaData.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlAreaData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F61AE-6858-4ACF-AE54-BC2468ADC57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5459AC-51CE-4349-8D59-5687B5782CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,10 +97,6 @@
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -227,6 +223,9 @@
   <si>
     <t>2023-09-04 Wei from 琦欣 先截斷至十個中文字</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -497,6 +496,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -507,9 +509,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,7 +820,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -836,23 +835,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -864,12 +863,12 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -879,10 +878,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
@@ -890,10 +889,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="3"/>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -901,10 +900,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -912,10 +911,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
@@ -950,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="22">
         <v>6</v>
@@ -969,20 +968,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="22">
         <v>20</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="29" t="s">
-        <v>49</v>
+      <c r="G10" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
@@ -990,13 +989,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="22">
         <v>6</v>
@@ -1009,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="22">
         <v>15</v>
@@ -1034,11 +1033,9 @@
         <v>20</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="22">
-        <v>8</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E13" s="22"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
     </row>
@@ -1047,13 +1044,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>23</v>
       </c>
       <c r="E14" s="22">
         <v>6</v>
@@ -1066,17 +1063,15 @@
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="22">
-        <v>8</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E15" s="22"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
     </row>
@@ -1085,13 +1080,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="22">
         <v>6</v>
@@ -1213,24 +1208,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
